--- a/SSKV_Alumni_Data.xlsx
+++ b/SSKV_Alumni_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanib/projects/SSKV_Alumni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C69180-4D87-5247-80A4-2AFD3B8C8975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09679772-CB3F-774E-8CE2-9FC9C758C7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,6 +58,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -71,6 +72,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -84,6 +86,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
@@ -108,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
   <si>
     <t>Timestamp</t>
   </si>
@@ -228,9 +231,6 @@
   </si>
   <si>
     <t xml:space="preserve">Parthasarathy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D PRABAKAR </t>
   </si>
   <si>
     <t xml:space="preserve">Kanchipuram </t>
@@ -411,9 +411,6 @@
     <t>Sathish</t>
   </si>
   <si>
-    <t>SHANMUGARAJ. C</t>
-  </si>
-  <si>
     <t>Grade 8</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t xml:space="preserve">Yuvagovindh </t>
   </si>
   <si>
-    <t xml:space="preserve">Suresh vishwanath </t>
-  </si>
-  <si>
     <t xml:space="preserve">Indian overseas Bank appraiser perungalathur </t>
   </si>
   <si>
@@ -614,6 +608,27 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+  <si>
+    <t>Suresh Vishwanath</t>
+  </si>
+  <si>
+    <t>Shanmugaraj. C</t>
+  </si>
+  <si>
+    <t>D Prabakar</t>
   </si>
 </sst>
 </file>
@@ -623,7 +638,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -634,6 +649,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,6 +673,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -868,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -928,6 +951,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,9 +1235,9 @@
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1223,7 +1249,9 @@
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="14" width="18.83203125" customWidth="1"/>
+    <col min="9" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" customWidth="1"/>
+    <col min="12" max="14" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1234,28 +1262,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1265,8 +1296,8 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2">
-        <v>1996</v>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1281,11 +1312,14 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I2" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1996</v>
       </c>
       <c r="R2" s="21"/>
     </row>
@@ -1294,26 +1328,29 @@
         <v>45913.648846516204</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5">
         <v>9789040491</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I3" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="R3" s="21"/>
     </row>
@@ -1322,29 +1359,32 @@
         <v>45907.598443726849</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="2">
         <v>9791451600</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="R4" s="21"/>
     </row>
@@ -1356,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
@@ -1371,11 +1411,14 @@
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I5" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="R5" s="21"/>
     </row>
@@ -1384,26 +1427,29 @@
         <v>45907.638349502318</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2">
         <v>8608123926</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="R6" s="21"/>
     </row>
@@ -1415,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1432,6 +1478,9 @@
       <c r="I7" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="R7" s="21"/>
     </row>
@@ -1440,29 +1489,32 @@
         <v>45907.528100891199</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="2">
         <v>9842379539</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I8" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
       </c>
       <c r="R8" s="21"/>
     </row>
@@ -1471,26 +1523,29 @@
         <v>45913.65096864583</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5">
         <v>9884688333</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I9" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="R9" s="21"/>
     </row>
@@ -1499,29 +1554,32 @@
         <v>45909.133975358796</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
       </c>
       <c r="R10" s="21"/>
     </row>
@@ -1533,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>22</v>
@@ -1548,11 +1606,14 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I11" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="R11" s="21"/>
     </row>
@@ -1561,26 +1622,29 @@
         <v>45907.836526331019</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="3" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
       </c>
       <c r="R12" s="21"/>
     </row>
@@ -1589,26 +1653,29 @@
         <v>45909.431677037035</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="F13" s="5">
         <v>8680018008</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I13" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="R13" s="21"/>
     </row>
@@ -1617,26 +1684,29 @@
         <v>45907.69046972222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1996</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I14" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1996</v>
       </c>
       <c r="R14" s="21"/>
     </row>
@@ -1645,29 +1715,32 @@
         <v>45909.847256817127</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="F15" s="5">
         <v>9972298637</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I15" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="R15" s="21"/>
     </row>
@@ -1678,8 +1751,8 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
-        <v>12</v>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
@@ -1694,11 +1767,14 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I16" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K16" s="2">
+        <v>12</v>
       </c>
       <c r="R16" s="21"/>
     </row>
@@ -1707,26 +1783,29 @@
         <v>45913.408536874995</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="I17" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="R17" s="21"/>
     </row>
@@ -1737,8 +1816,8 @@
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
-        <v>10</v>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -1755,6 +1834,9 @@
       <c r="I18" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
       </c>
       <c r="R18" s="21"/>
     </row>
@@ -1763,29 +1845,32 @@
         <v>45907.592806354165</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="6" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
       </c>
       <c r="R19" s="21"/>
     </row>
@@ -1794,7 +1879,7 @@
         <v>45907.529991759264</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -1803,20 +1888,23 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2">
         <v>7338897333</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I20" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1842,11 +1930,14 @@
         <v>39</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I21" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1854,29 +1945,32 @@
         <v>45907.756317499996</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F22" s="2">
         <v>9840954897</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="3" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1884,54 +1978,60 @@
         <v>45916.968443391204</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="5">
-        <v>12</v>
+        <v>136</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="6" t="e">
         <f ca="1">_xludf.image(H23)</f>
         <v>#NAME?</v>
       </c>
+      <c r="K23" s="5">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>45907.6436105787</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2">
         <v>9884720008</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3" t="e">
         <f ca="1">_xludf.image(H24)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,29 +2039,32 @@
         <v>45907.792592002312</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="5">
         <v>9941511000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I25" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1969,29 +2072,32 @@
         <v>45908.112841435184</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F26" s="2">
         <v>4027403375</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I26" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1999,29 +2105,32 @@
         <v>45907.765763020834</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="5">
         <v>9444111210</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I27" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2032,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -2047,11 +2156,14 @@
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I28" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2059,57 +2171,63 @@
         <v>45908.341315613427</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="6" t="e">
         <f ca="1">_xludf.image(H29)</f>
         <v>#NAME?</v>
       </c>
+      <c r="K29" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>45907.829622986115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I30" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2117,26 +2235,29 @@
         <v>45912.480569432868</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1993</v>
+        <v>169</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F31" s="5">
         <v>9843310332</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I31" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1993</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2144,85 +2265,94 @@
         <v>45913.645390289355</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="2">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F32" s="2">
         <v>9840610638</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="3" t="e">
         <f ca="1">_xludf.image(H32)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K32" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>45916.49268491898</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="F33" s="5">
         <v>9171570410</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="6" t="e">
         <f ca="1">_xludf.image(H33)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K33" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>45911.334695196754</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="F34" s="10">
         <v>9843080309</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I34" s="11" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/SSKV_Alumni_Data.xlsx
+++ b/SSKV_Alumni_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanib/projects/SSKV_Alumni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09679772-CB3F-774E-8CE2-9FC9C758C7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C933B42-6206-4744-AF79-826CF4C70587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1237,7 +1237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1362,7 +1362,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>52</v>

--- a/SSKV_Alumni_Data.xlsx
+++ b/SSKV_Alumni_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanib/projects/SSKV_Alumni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C933B42-6206-4744-AF79-826CF4C70587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704077D-C3B1-1745-BE80-6254C3E323F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,6 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Responder updated this value.</t>
         </r>
@@ -158,9 +157,6 @@
     <t xml:space="preserve">Tiruchirappalli </t>
   </si>
   <si>
-    <t xml:space="preserve">Teaching </t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -629,6 +625,9 @@
   </si>
   <si>
     <t>D Prabakar</t>
+  </si>
+  <si>
+    <t>Teacher</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1262,31 +1261,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1294,25 +1293,25 @@
         <v>45907.430288969903</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>9176069444</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1328,29 +1327,29 @@
         <v>45913.648846516204</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5">
         <v>9789040491</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="6" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="I3" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="R3" s="21"/>
     </row>
@@ -1359,32 +1358,32 @@
         <v>45907.598443726849</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F4" s="2">
         <v>9791451600</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R4" s="21"/>
     </row>
@@ -1393,32 +1392,32 @@
         <v>45907.433762800923</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="6" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="R5" s="21"/>
     </row>
@@ -1427,29 +1426,29 @@
         <v>45907.638349502318</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
         <v>8608123926</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" s="21"/>
     </row>
@@ -1461,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -1489,25 +1488,25 @@
         <v>45907.528100891199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F8" s="2">
         <v>9842379539</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1523,29 +1522,29 @@
         <v>45913.65096864583</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5">
         <v>9884688333</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="6" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="I9" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="R9" s="21"/>
     </row>
@@ -1554,32 +1553,32 @@
         <v>45909.133975358796</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="R10" s="21"/>
     </row>
@@ -1588,32 +1587,32 @@
         <v>45907.43070420139</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="5">
         <v>7506660190</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I11" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11" s="21"/>
     </row>
@@ -1622,29 +1621,29 @@
         <v>45907.836526331019</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="3" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="R12" s="21"/>
     </row>
@@ -1653,29 +1652,29 @@
         <v>45909.431677037035</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5">
         <v>8680018008</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R13" s="21"/>
     </row>
@@ -1684,22 +1683,22 @@
         <v>45907.69046972222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I14" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1715,32 +1714,32 @@
         <v>45909.847256817127</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="F15" s="5">
         <v>9972298637</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R15" s="21"/>
     </row>
@@ -1752,22 +1751,22 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="F16" s="2">
         <v>7338985380</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1783,29 +1782,29 @@
         <v>45913.408536874995</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="6" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="R17" s="21"/>
     </row>
@@ -1814,22 +1813,22 @@
         <v>45907.467407731485</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1845,32 +1844,32 @@
         <v>45907.592806354165</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="G19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="6" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="R19" s="21"/>
     </row>
@@ -1879,32 +1878,32 @@
         <v>45907.529991759264</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2">
         <v>7338897333</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1912,32 +1911,32 @@
         <v>45907.491367037037</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F21" s="5">
         <v>7845675633</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1945,32 +1944,32 @@
         <v>45907.756317499996</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F22" s="2">
         <v>9840954897</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="3" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="H22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1978,22 +1977,22 @@
         <v>45916.968443391204</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>138</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="6" t="e">
@@ -2009,29 +2008,29 @@
         <v>45907.6436105787</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2">
         <v>9884720008</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" s="3" t="e">
         <f ca="1">_xludf.image(H24)</f>
         <v>#NAME?</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2039,32 +2038,32 @@
         <v>45907.792592002312</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="5">
         <v>9941511000</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I25" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2072,32 +2071,32 @@
         <v>45908.112841435184</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F26" s="2">
         <v>4027403375</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I26" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2105,32 +2104,32 @@
         <v>45907.765763020834</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F27" s="5">
         <v>9444111210</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I27" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2141,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -2156,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I28" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2171,22 +2170,22 @@
         <v>45908.341315613427</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="6" t="e">
@@ -2194,7 +2193,7 @@
         <v>#NAME?</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2202,32 +2201,32 @@
         <v>45907.829622986115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I30" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2235,22 +2234,22 @@
         <v>45912.480569432868</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="5">
         <v>9843310332</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2265,22 +2264,22 @@
         <v>45913.645390289355</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2">
         <v>9840610638</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" s="20"/>
       <c r="I32" s="3" t="e">
@@ -2296,22 +2295,22 @@
         <v>45916.49268491898</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="F33" s="5">
         <v>9171570410</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="6" t="e">
@@ -2319,7 +2318,7 @@
         <v>#NAME?</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2327,32 +2326,32 @@
         <v>45911.334695196754</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="10">
         <v>9843080309</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I34" s="11" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/SSKV_Alumni_Data.xlsx
+++ b/SSKV_Alumni_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanib/projects/SSKV_Alumni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704077D-C3B1-1745-BE80-6254C3E323F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963350E4-3DD8-7B48-9F96-41DFDAA72622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="178">
   <si>
     <t>Timestamp</t>
   </si>
@@ -628,6 +628,24 @@
   </si>
   <si>
     <t>Teacher</t>
+  </si>
+  <si>
+    <t>Ravi Balachandaran.jpeg</t>
+  </si>
+  <si>
+    <t>Vedagiri Balasubramanian.jpg</t>
+  </si>
+  <si>
+    <t>Divakar Subramanian.jpg</t>
+  </si>
+  <si>
+    <t>Babu Sd.jpg</t>
+  </si>
+  <si>
+    <t>Naveen Ramachandran.jpg</t>
+  </si>
+  <si>
+    <t>Suresh Viswanathan.jpg</t>
   </si>
 </sst>
 </file>
@@ -637,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -650,18 +668,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
@@ -890,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -910,9 +916,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -928,30 +931,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,11 +1247,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1249,42 +1264,42 @@
     <col min="7" max="7" width="33.6640625" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
     <col min="9" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" style="26" customWidth="1"/>
     <col min="12" max="14" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1317,10 +1332,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="22">
         <v>1996</v>
       </c>
-      <c r="R2" s="21"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
@@ -1332,7 +1347,7 @@
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1344,14 +1359,17 @@
       <c r="G3" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="H3" t="s">
+        <v>175</v>
+      </c>
       <c r="I3" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
@@ -1382,10 +1400,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="21"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
@@ -1416,10 +1434,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="21"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
@@ -1447,10 +1465,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -1478,10 +1496,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="21"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
@@ -1512,10 +1530,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="22">
         <v>10</v>
       </c>
-      <c r="R8" s="21"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -1539,14 +1557,17 @@
       <c r="G9" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="H9" t="s">
+        <v>174</v>
+      </c>
       <c r="I9" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
@@ -1555,7 +1576,7 @@
       <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1577,10 +1598,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="21"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
@@ -1611,10 +1632,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="21"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -1642,10 +1663,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="R12" s="21"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -1673,10 +1694,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="21"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -1704,10 +1725,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="22">
         <v>1996</v>
       </c>
-      <c r="R14" s="21"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1738,10 +1759,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="21"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -1772,10 +1793,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="22">
         <v>12</v>
       </c>
-      <c r="R16" s="21"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1787,7 +1808,7 @@
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>144</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1799,14 +1820,17 @@
       <c r="G17" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="H17" t="s">
+        <v>176</v>
+      </c>
       <c r="I17" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="21"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
@@ -1824,7 +1848,7 @@
       <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1834,10 +1858,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="22">
         <v>10</v>
       </c>
-      <c r="R18" s="21"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
@@ -1855,7 +1879,7 @@
       <c r="E19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1868,10 +1892,10 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="21"/>
+      <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
@@ -1902,7 +1926,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="22" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1935,7 +1959,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1968,7 +1992,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="22" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1988,18 +2012,20 @@
       <c r="E23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>137</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" t="s">
+        <v>172</v>
+      </c>
       <c r="I23" s="6" t="e">
-        <f ca="1">_xludf.image(H23)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K23" s="5">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K23" s="23">
         <v>12</v>
       </c>
     </row>
@@ -2029,7 +2055,7 @@
         <f ca="1">_xludf.image(H24)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="22" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2062,7 +2088,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2095,7 +2121,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2128,7 +2154,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="23" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2161,7 +2187,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2187,12 +2213,12 @@
       <c r="G29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="6" t="e">
         <f ca="1">_xludf.image(H29)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="23" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2225,7 +2251,7 @@
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2251,11 +2277,14 @@
       <c r="G31" s="5" t="s">
         <v>115</v>
       </c>
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
       <c r="I31" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="23">
         <v>1993</v>
       </c>
     </row>
@@ -2269,7 +2298,7 @@
       <c r="C32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2281,16 +2310,16 @@
       <c r="G32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="3" t="e">
         <f ca="1">_xludf.image(H32)</f>
         <v>#NAME?</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>45916.49268491898</v>
       </c>
@@ -2312,47 +2341,67 @@
       <c r="G33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" t="s">
+        <v>173</v>
+      </c>
       <c r="I33" s="6" t="e">
-        <f ca="1">_xludf.image(H33)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K33" s="5" t="s">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K33" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>45911.334695196754</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>9843080309</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H34" t="s">
         <v>162</v>
       </c>
-      <c r="I34" s="11" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K34" s="10" t="s">
+      <c r="I34" s="10" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K34" s="25" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L45" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SSKV_Alumni_Data.xlsx
+++ b/SSKV_Alumni_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilanib/projects/SSKV_Alumni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963350E4-3DD8-7B48-9F96-41DFDAA72622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE3FF27-B5A1-6747-842F-24B86C8AA581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="182">
   <si>
     <t>Timestamp</t>
   </si>
@@ -646,6 +646,18 @@
   </si>
   <si>
     <t>Suresh Viswanathan.jpg</t>
+  </si>
+  <si>
+    <t>19/09/2025 11:52:52</t>
+  </si>
+  <si>
+    <t>Ananthanarayanan</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Ananth</t>
   </si>
 </sst>
 </file>
@@ -655,7 +667,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -688,6 +700,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -896,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -968,6 +985,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,10 +1052,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:J34" headerRowDxfId="0">
-  <autoFilter ref="A1:J34" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
-    <sortCondition ref="B1:B34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:J35" headerRowDxfId="0">
+  <autoFilter ref="A1:J35" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J35">
+    <sortCondition ref="B1:B35"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
@@ -1249,9 +1276,9 @@
   </sheetPr>
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1304,34 +1331,29 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>45907.430288969903</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>9176069444</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="E2" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="28">
+        <v>9566055866</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="31"/>
       <c r="K2" s="22">
         <v>1996</v>
       </c>
@@ -1339,28 +1361,28 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>45913.648846516204</v>
+        <v>45907.430288969903</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5">
-        <v>9789040491</v>
+        <v>9176069444</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="I3" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1373,28 +1395,28 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>45907.598443726849</v>
+        <v>45913.648846516204</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2">
-        <v>9791451600</v>
+        <v>9789040491</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="I4" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1407,28 +1429,28 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>45907.433762800923</v>
+        <v>45907.598443726849</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9791451600</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I5" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1441,25 +1463,28 @@
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>45907.638349502318</v>
+        <v>45907.433762800923</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8608123926</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
       </c>
       <c r="I6" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1472,25 +1497,25 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>45907.412551064815</v>
+        <v>45907.638349502318</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5">
-        <v>9940689936</v>
+        <v>8608123926</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I7" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1503,28 +1528,25 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>45907.528100891199</v>
+        <v>45907.412551064815</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2">
-        <v>9842379539</v>
+        <v>9940689936</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1537,28 +1559,28 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>45913.65096864583</v>
+        <v>45907.528100891199</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5">
-        <v>9884688333</v>
+        <v>9842379539</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I9" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1571,28 +1593,28 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>45909.133975358796</v>
+        <v>45913.65096864583</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>127</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>129</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9884688333</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="I10" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1605,28 +1627,28 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>45907.43070420139</v>
+        <v>45909.133975358796</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>88</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5">
-        <v>7506660190</v>
+        <v>91</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I11" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1639,25 +1661,28 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>45907.836526331019</v>
+        <v>45907.43070420139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7506660190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>157</v>
       </c>
       <c r="I12" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1670,25 +1695,25 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>45909.431677037035</v>
+        <v>45907.836526331019</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="5">
-        <v>8680018008</v>
+        <v>85</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="I13" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1701,25 +1726,25 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>45907.69046972222</v>
+        <v>45909.431677037035</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8680018008</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="I14" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1732,28 +1757,25 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>45909.847256817127</v>
+        <v>45907.69046972222</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="5">
-        <v>9972298637</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="I15" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1766,28 +1788,28 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>45907.418459664354</v>
+        <v>45909.847256817127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2">
-        <v>7338985380</v>
+        <v>9972298637</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1800,28 +1822,28 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>45913.408536874995</v>
+        <v>45907.418459664354</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>144</v>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>119</v>
+        <v>171</v>
+      </c>
+      <c r="F17" s="5">
+        <v>7338985380</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="I17" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1834,25 +1856,28 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>45907.467407731485</v>
+        <v>45913.408536874995</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>118</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
       </c>
       <c r="I18" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1865,28 +1890,25 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>45907.592806354165</v>
+        <v>45907.467407731485</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="I19" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1899,28 +1921,28 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>45907.529991759264</v>
+        <v>45907.592806354165</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="2">
-        <v>7338897333</v>
+        <v>47</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1932,28 +1954,28 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>45907.491367037037</v>
+        <v>45907.529991759264</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F21" s="5">
-        <v>7845675633</v>
+        <v>7338897333</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I21" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1965,28 +1987,28 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>45907.756317499996</v>
+        <v>45907.491367037037</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2">
-        <v>9840954897</v>
+        <v>7845675633</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I22" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -1998,28 +2020,28 @@
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>45916.968443391204</v>
+        <v>45907.756317499996</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>137</v>
+        <v>69</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9840954897</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="I23" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2031,10 +2053,10 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>45907.6436105787</v>
+        <v>45916.968443391204</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -2043,16 +2065,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="2">
-        <v>9884720008</v>
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
       </c>
       <c r="I24" s="3" t="e">
-        <f ca="1">_xludf.image(H24)</f>
+        <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K24" s="22" t="s">
@@ -2061,31 +2086,28 @@
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>45907.792592002312</v>
+        <v>45907.6436105787</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F25" s="5">
-        <v>9941511000</v>
+        <v>9884720008</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="I25" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
+        <f ca="1">_xludf.image(H25)</f>
         <v>#NAME?</v>
       </c>
       <c r="K25" s="23" t="s">
@@ -2094,28 +2116,28 @@
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>45908.112841435184</v>
+        <v>45907.792592002312</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2">
-        <v>4027403375</v>
+        <v>9941511000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I26" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2127,28 +2149,28 @@
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>45907.765763020834</v>
+        <v>45908.112841435184</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F27" s="5">
-        <v>9444111210</v>
+        <v>4027403375</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I27" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2160,28 +2182,28 @@
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>45913.644104733801</v>
+        <v>45907.765763020834</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9444111210</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="3" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2193,29 +2215,31 @@
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>45908.341315613427</v>
+        <v>45913.644104733801</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>169</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="I29" s="6" t="e">
-        <f ca="1">_xludf.image(H29)</f>
+        <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K29" s="23" t="s">
@@ -2224,31 +2248,29 @@
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>45907.829622986115</v>
+        <v>45908.341315613427</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" t="s">
-        <v>161</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H30" s="30"/>
       <c r="I30" s="3" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
+        <f ca="1">_xludf.image(H30)</f>
         <v>#NAME?</v>
       </c>
       <c r="K30" s="22" t="s">
@@ -2257,28 +2279,28 @@
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>45912.480569432868</v>
+        <v>45907.829622986115</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="5">
-        <v>9843310332</v>
+        <v>79</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I31" s="6" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2290,29 +2312,31 @@
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>45913.645390289355</v>
+        <v>45912.480569432868</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>5</v>
+        <v>167</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F32" s="2">
-        <v>9840610638</v>
+        <v>9843310332</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="I32" s="3" t="e">
-        <f ca="1">_xludf.image(H32)</f>
+        <f ca="1">_xludf.image(#REF!)</f>
         <v>#NAME?</v>
       </c>
       <c r="K32" s="22">
@@ -2321,31 +2345,29 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>45916.49268491898</v>
+        <v>45913.645390289355</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>132</v>
+      <c r="D33" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F33" s="5">
-        <v>9171570410</v>
+        <v>9840610638</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" t="s">
-        <v>173</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="H33" s="30"/>
       <c r="I33" s="6" t="e">
-        <f ca="1">_xludf.image(#REF!)</f>
+        <f ca="1">_xludf.image(H33)</f>
         <v>#NAME?</v>
       </c>
       <c r="K33" s="23" t="s">
@@ -2354,28 +2376,28 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
-        <v>45911.334695196754</v>
+        <v>45916.49268491898</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F34" s="9">
-        <v>9843080309</v>
+        <v>9171570410</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I34" s="10" t="e">
         <f ca="1">_xludf.image(#REF!)</f>
@@ -2383,6 +2405,36 @@
       </c>
       <c r="K34" s="25" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <v>45911.334695196754</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="29">
+        <v>9843080309</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="29" t="e">
+        <f ca="1">_xludf.image(#REF!)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
